--- a/Tables/Supp Table 5 - SNP-to-GeneMappingSummary.xlsx
+++ b/Tables/Supp Table 5 - SNP-to-GeneMappingSummary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="allLocs" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>500kb</t>
   </si>
@@ -143,13 +143,38 @@
   </si>
   <si>
     <t>Flank Limit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maize grain ionome SNP-to-gene mapping results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Significant GWAS SNPs associated with the maize grain ionome were mapped to candidate genes. SNPs within overlapping windows were collapsed down to Effective Loci. Candidate genes were mapped by taking genes upstream and downstream (designated by Window Size) of the effective locus, up to the maximum designated by Flank Limit.
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +185,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -639,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,36 +759,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,35 +829,63 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1132,998 +1169,1018 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:14" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F4" s="31">
         <v>1</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G4" s="31">
         <v>2</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H4" s="31">
         <v>5</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I4" s="31">
         <v>1</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J4" s="31">
         <v>2</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K4" s="31">
         <v>5</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L4" s="31">
         <v>1</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M4" s="31">
         <v>2</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N4" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B5" s="33">
         <v>4243</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C5" s="34">
         <v>2279</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D5" s="34">
         <v>1658</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E5" s="34">
         <v>456</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F5" s="34">
         <v>5272</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G5" s="34">
         <v>7348</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H5" s="34">
         <v>11612</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I5" s="34">
         <v>7727</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J5" s="34">
         <v>9664</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K5" s="34">
         <v>13614</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L5" s="34">
         <v>20024</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M5" s="34">
         <v>20776</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N5" s="35">
         <v>22927</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B6" s="36">
         <v>176</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C6" s="37">
         <v>149</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D6" s="38">
         <v>140</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E6" s="39">
         <v>98</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F6" s="37">
         <v>239</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G6" s="38">
         <v>336</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H6" s="40">
         <v>417</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I6" s="41">
         <v>350</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J6" s="38">
         <v>523</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K6" s="40">
         <v>699</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L6" s="38">
         <v>804</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M6" s="38">
         <v>1035</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N6" s="39">
         <v>1684</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B7" s="42">
         <v>182</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C7" s="43">
         <v>151</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D7" s="44">
         <v>141</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E7" s="45">
         <v>104</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F7" s="43">
         <v>228</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G7" s="44">
         <v>314</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H7" s="46">
         <v>372</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I7" s="47">
         <v>339</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J7" s="44">
         <v>489</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K7" s="46">
         <v>669</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L7" s="44">
         <v>740</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M7" s="44">
         <v>986</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N7" s="45">
         <v>1657</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B8" s="42">
         <v>108</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C8" s="43">
         <v>95</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D8" s="44">
         <v>86</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E8" s="45">
         <v>68</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F8" s="43">
         <v>154</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G8" s="44">
         <v>233</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H8" s="46">
         <v>271</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I8" s="47">
         <v>219</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J8" s="44">
         <v>326</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K8" s="46">
         <v>433</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L8" s="44">
         <v>426</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M8" s="44">
         <v>601</v>
       </c>
-      <c r="N7" s="53">
+      <c r="N8" s="45">
         <v>1007</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B9" s="42">
         <v>105</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C9" s="43">
         <v>82</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D9" s="44">
         <v>78</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E9" s="45">
         <v>61</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F9" s="43">
         <v>124</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G9" s="44">
         <v>181</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H9" s="46">
         <v>215</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I9" s="47">
         <v>164</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J9" s="44">
         <v>253</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K9" s="46">
         <v>350</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L9" s="44">
         <v>339</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M9" s="44">
         <v>476</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N9" s="45">
         <v>845</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B10" s="42">
         <v>630</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C10" s="43">
         <v>471</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D10" s="44">
         <v>418</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E10" s="45">
         <v>251</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F10" s="43">
         <v>869</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G10" s="44">
         <v>1189</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H10" s="46">
         <v>1395</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I10" s="47">
         <v>1252</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J10" s="44">
         <v>1786</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K10" s="46">
         <v>2309</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L10" s="44">
         <v>3159</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M10" s="44">
         <v>3758</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N10" s="45">
         <v>5283</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B11" s="42">
         <v>165</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C11" s="43">
         <v>133</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D11" s="44">
         <v>125</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E11" s="45">
         <v>101</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F11" s="43">
         <v>202</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G11" s="44">
         <v>293</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H11" s="46">
         <v>355</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I11" s="47">
         <v>284</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J11" s="44">
         <v>437</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K11" s="46">
         <v>604</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L11" s="44">
         <v>562</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M11" s="44">
         <v>805</v>
       </c>
-      <c r="N10" s="53">
+      <c r="N11" s="45">
         <v>1431</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B12" s="42">
         <v>171</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C12" s="43">
         <v>136</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D12" s="44">
         <v>125</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E12" s="45">
         <v>89</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F12" s="43">
         <v>252</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G12" s="44">
         <v>351</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H12" s="46">
         <v>420</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I12" s="47">
         <v>335</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J12" s="44">
         <v>511</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K12" s="46">
         <v>697</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L12" s="44">
         <v>766</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M12" s="44">
         <v>990</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N12" s="45">
         <v>1546</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B13" s="42">
         <v>130</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C13" s="43">
         <v>111</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D13" s="44">
         <v>100</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E13" s="45">
         <v>78</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F13" s="43">
         <v>168</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G13" s="44">
         <v>248</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H13" s="46">
         <v>298</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I13" s="47">
         <v>239</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J13" s="44">
         <v>357</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K13" s="46">
         <v>498</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L13" s="44">
         <v>534</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M13" s="44">
         <v>715</v>
       </c>
-      <c r="N12" s="53">
+      <c r="N13" s="45">
         <v>1176</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B14" s="42">
         <v>153</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C14" s="43">
         <v>129</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D14" s="44">
         <v>121</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E14" s="45">
         <v>99</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F14" s="43">
         <v>203</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G14" s="44">
         <v>281</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H14" s="46">
         <v>328</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I14" s="47">
         <v>274</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J14" s="44">
         <v>414</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K14" s="46">
         <v>554</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L14" s="44">
         <v>584</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M14" s="44">
         <v>815</v>
       </c>
-      <c r="N13" s="53">
+      <c r="N14" s="45">
         <v>1398</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B15" s="42">
         <v>168</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C15" s="43">
         <v>134</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D15" s="44">
         <v>119</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E15" s="45">
         <v>94</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F15" s="43">
         <v>228</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G15" s="44">
         <v>302</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H15" s="46">
         <v>340</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I15" s="47">
         <v>314</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J15" s="44">
         <v>436</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K15" s="46">
         <v>562</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L15" s="44">
         <v>638</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M15" s="44">
         <v>850</v>
       </c>
-      <c r="N14" s="53">
+      <c r="N15" s="45">
         <v>1364</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B16" s="42">
         <v>154</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C16" s="43">
         <v>123</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D16" s="44">
         <v>109</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E16" s="45">
         <v>74</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F16" s="43">
         <v>226</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G16" s="44">
         <v>312</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H16" s="46">
         <v>361</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I16" s="47">
         <v>287</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J16" s="44">
         <v>419</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K16" s="46">
         <v>532</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L16" s="44">
         <v>709</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M16" s="44">
         <v>892</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N16" s="45">
         <v>1354</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B17" s="42">
         <v>99</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C17" s="43">
         <v>73</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D17" s="44">
         <v>64</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E17" s="45">
         <v>49</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F17" s="43">
         <v>107</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G17" s="44">
         <v>148</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H17" s="46">
         <v>163</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I17" s="47">
         <v>161</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J17" s="44">
         <v>226</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K17" s="46">
         <v>291</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L17" s="44">
         <v>301</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M17" s="44">
         <v>417</v>
       </c>
-      <c r="N16" s="53">
+      <c r="N17" s="45">
         <v>697</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B18" s="42">
         <v>123</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C18" s="43">
         <v>101</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D18" s="44">
         <v>91</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E18" s="45">
         <v>70</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F18" s="43">
         <v>159</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G18" s="44">
         <v>223</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H18" s="46">
         <v>260</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I18" s="47">
         <v>210</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J18" s="44">
         <v>312</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K18" s="46">
         <v>424</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L18" s="44">
         <v>485</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M18" s="44">
         <v>643</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N18" s="45">
         <v>1051</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B19" s="42">
         <v>135</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C19" s="43">
         <v>105</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D19" s="44">
         <v>93</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E19" s="45">
         <v>78</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F19" s="43">
         <v>168</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G19" s="44">
         <v>223</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H19" s="46">
         <v>251</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I19" s="47">
         <v>245</v>
       </c>
-      <c r="J18" s="52">
+      <c r="J19" s="44">
         <v>335</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K19" s="46">
         <v>414</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L19" s="44">
         <v>409</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M19" s="44">
         <v>590</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N19" s="45">
         <v>1026</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B20" s="42">
         <v>162</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C20" s="43">
         <v>135</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D20" s="44">
         <v>129</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E20" s="45">
         <v>101</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F20" s="43">
         <v>237</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G20" s="44">
         <v>328</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H20" s="46">
         <v>392</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I20" s="47">
         <v>330</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J20" s="44">
         <v>485</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K20" s="46">
         <v>682</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L20" s="44">
         <v>663</v>
       </c>
-      <c r="M19" s="52">
+      <c r="M20" s="44">
         <v>895</v>
       </c>
-      <c r="N19" s="53">
+      <c r="N20" s="45">
         <v>1563</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B21" s="42">
         <v>113</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C21" s="43">
         <v>99</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D21" s="44">
         <v>90</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E21" s="45">
         <v>63</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F21" s="43">
         <v>142</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G21" s="44">
         <v>206</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H21" s="46">
         <v>238</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I21" s="47">
         <v>199</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J21" s="44">
         <v>317</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K21" s="46">
         <v>431</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L21" s="44">
         <v>481</v>
       </c>
-      <c r="M20" s="52">
+      <c r="M21" s="44">
         <v>636</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N21" s="45">
         <v>1009</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B22" s="48">
         <v>149</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C22" s="49">
         <v>125</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D22" s="50">
         <v>116</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E22" s="51">
         <v>90</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F22" s="49">
         <v>211</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G22" s="50">
         <v>299</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H22" s="52">
         <v>348</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I22" s="53">
         <v>288</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J22" s="50">
         <v>435</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K22" s="52">
         <v>565</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L22" s="50">
         <v>613</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M22" s="50">
         <v>841</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N22" s="51">
         <v>1419</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="63">
-        <f>AVERAGE(B5:B21)</f>
+      <c r="B23" s="63">
+        <f>AVERAGE(B6:B22)</f>
         <v>171.94117647058823</v>
       </c>
-      <c r="C22" s="64">
-        <f>AVERAGE(C5:C21)</f>
+      <c r="C23" s="54">
+        <f>AVERAGE(C6:C22)</f>
         <v>138.35294117647058</v>
       </c>
-      <c r="D22" s="65">
-        <f t="shared" ref="D22:E22" si="0">AVERAGE(D5:D21)</f>
+      <c r="D23" s="55">
+        <f t="shared" ref="D23:E23" si="0">AVERAGE(D6:D22)</f>
         <v>126.17647058823529</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E23" s="56">
         <f t="shared" si="0"/>
         <v>92.235294117647058</v>
       </c>
-      <c r="F22" s="65">
-        <f t="shared" ref="F22" si="1">AVERAGE(F5:F21)</f>
+      <c r="F23" s="55">
+        <f t="shared" ref="F23" si="1">AVERAGE(F6:F22)</f>
         <v>230.41176470588235</v>
       </c>
-      <c r="G22" s="65">
-        <f t="shared" ref="G22" si="2">AVERAGE(G5:G21)</f>
+      <c r="G23" s="55">
+        <f t="shared" ref="G23" si="2">AVERAGE(G6:G22)</f>
         <v>321.58823529411762</v>
       </c>
-      <c r="H22" s="65">
-        <f t="shared" ref="H22" si="3">AVERAGE(H5:H21)</f>
+      <c r="H23" s="55">
+        <f t="shared" ref="H23" si="3">AVERAGE(H6:H22)</f>
         <v>377.88235294117646</v>
       </c>
-      <c r="I22" s="65">
-        <f t="shared" ref="I22" si="4">AVERAGE(I5:I21)</f>
+      <c r="I23" s="55">
+        <f t="shared" ref="I23" si="4">AVERAGE(I6:I22)</f>
         <v>322.94117647058823</v>
       </c>
-      <c r="J22" s="65">
-        <f t="shared" ref="J22" si="5">AVERAGE(J5:J21)</f>
+      <c r="J23" s="55">
+        <f t="shared" ref="J23" si="5">AVERAGE(J6:J22)</f>
         <v>474.1764705882353</v>
       </c>
-      <c r="K22" s="65">
-        <f t="shared" ref="K22" si="6">AVERAGE(K5:K21)</f>
+      <c r="K23" s="55">
+        <f t="shared" ref="K23" si="6">AVERAGE(K6:K22)</f>
         <v>630.23529411764707</v>
       </c>
-      <c r="L22" s="65">
-        <f t="shared" ref="L22" si="7">AVERAGE(L5:L21)</f>
+      <c r="L23" s="55">
+        <f t="shared" ref="L23" si="7">AVERAGE(L6:L22)</f>
         <v>718.41176470588232</v>
       </c>
-      <c r="M22" s="65">
-        <f t="shared" ref="M22" si="8">AVERAGE(M5:M21)</f>
+      <c r="M23" s="55">
+        <f t="shared" ref="M23" si="8">AVERAGE(M6:M22)</f>
         <v>937.94117647058829</v>
       </c>
-      <c r="N22" s="66">
-        <f t="shared" ref="N22" si="9">AVERAGE(N5:N21)</f>
+      <c r="N23" s="56">
+        <f t="shared" ref="N23" si="9">AVERAGE(N6:N22)</f>
         <v>1500.5882352941176</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69">
-        <f>AVERAGE(C22:E22)</f>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="62"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="58">
+        <f>AVERAGE(C23:E23)</f>
         <v>118.92156862745098</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="70">
-        <f>AVERAGE(F22:N22)</f>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="59">
+        <f>AVERAGE(F23:N23)</f>
         <v>612.68627450980387</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="71"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:N23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2138,33 +2195,33 @@
       <selection sqref="A1:O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2172,22 +2229,22 @@
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -2197,7 +2254,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2212,23 +2269,23 @@
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31" t="s">
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2375,7 @@
         <v>29244</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2365,7 +2422,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="16" t="s">
         <v>8</v>
@@ -2410,7 +2467,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="16" t="s">
         <v>9</v>
@@ -2455,7 +2512,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
         <v>10</v>
@@ -2500,7 +2557,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
         <v>11</v>
@@ -2545,7 +2602,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
         <v>12</v>
@@ -2590,7 +2647,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
         <v>13</v>
@@ -2635,7 +2692,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
         <v>14</v>
@@ -2680,7 +2737,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
         <v>15</v>
@@ -2725,7 +2782,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
         <v>16</v>
@@ -2770,7 +2827,7 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
         <v>16</v>
@@ -2815,7 +2872,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
         <v>17</v>
@@ -2860,7 +2917,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
         <v>18</v>
@@ -2905,7 +2962,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
         <v>19</v>
@@ -2950,7 +3007,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
         <v>20</v>
@@ -2995,7 +3052,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
         <v>21</v>
@@ -3040,7 +3097,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
         <v>22</v>
@@ -3085,7 +3142,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
         <v>23</v>
@@ -3130,7 +3187,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
         <v>24</v>
@@ -3175,7 +3232,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="17" t="s">
         <v>25</v>
@@ -3220,17 +3277,17 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Tables/Supp Table 5 - SNP-to-GeneMappingSummary.xlsx
+++ b/Tables/Supp Table 5 - SNP-to-GeneMappingSummary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="allLocs" sheetId="2" r:id="rId1"/>
@@ -165,7 +165,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Significant GWAS SNPs associated with the maize grain ionome were mapped to candidate genes. SNPs within overlapping windows were collapsed down to Effective Loci. Candidate genes were mapped by taking genes upstream and downstream (designated by Window Size) of the effective locus, up to the maximum designated by Flank Limit.
+Significant GWAS SNPs associated with the maize grain ionome were mapped to candidate genes. SNPs within overlapping windows were collapsed down to Effective Loci. Candidate genes were mapped by taking genes upstream and downstream (designated by Window Size) of the effective locus, up to the maximum designated by Flank Limit. The Ionome average shows the average per column for each value (e.g. at 50kb there are an average of 138 effective loci) as well as total average for the whole group (e.g. average of 50kb, 100kb, and 500kb is 119 effective loci).
 </t>
     </r>
   </si>
@@ -838,6 +838,10 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -882,10 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1173,56 +1173,56 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:14" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>39</v>
       </c>
@@ -1238,23 +1238,23 @@
       <c r="E3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>40</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>33</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>22927</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>9</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>11</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>12</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>38</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>19</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>23</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>25</v>
       </c>
@@ -2090,84 +2090,70 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="65">
         <f>AVERAGE(B6:B22)</f>
         <v>171.94117647058823</v>
       </c>
       <c r="C23" s="54">
-        <f>AVERAGE(C6:C22)</f>
         <v>138.35294117647058</v>
       </c>
       <c r="D23" s="55">
-        <f t="shared" ref="D23:E23" si="0">AVERAGE(D6:D22)</f>
         <v>126.17647058823529</v>
       </c>
       <c r="E23" s="56">
-        <f t="shared" si="0"/>
         <v>92.235294117647058</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" ref="F23" si="1">AVERAGE(F6:F22)</f>
         <v>230.41176470588235</v>
       </c>
       <c r="G23" s="55">
-        <f t="shared" ref="G23" si="2">AVERAGE(G6:G22)</f>
         <v>321.58823529411762</v>
       </c>
       <c r="H23" s="55">
-        <f t="shared" ref="H23" si="3">AVERAGE(H6:H22)</f>
         <v>377.88235294117646</v>
       </c>
       <c r="I23" s="55">
-        <f t="shared" ref="I23" si="4">AVERAGE(I6:I22)</f>
         <v>322.94117647058823</v>
       </c>
       <c r="J23" s="55">
-        <f t="shared" ref="J23" si="5">AVERAGE(J6:J22)</f>
         <v>474.1764705882353</v>
       </c>
       <c r="K23" s="55">
-        <f t="shared" ref="K23" si="6">AVERAGE(K6:K22)</f>
         <v>630.23529411764707</v>
       </c>
       <c r="L23" s="55">
-        <f t="shared" ref="L23" si="7">AVERAGE(L6:L22)</f>
         <v>718.41176470588232</v>
       </c>
       <c r="M23" s="55">
-        <f t="shared" ref="M23" si="8">AVERAGE(M6:M22)</f>
         <v>937.94117647058829</v>
       </c>
       <c r="N23" s="56">
-        <f t="shared" ref="N23" si="9">AVERAGE(N6:N22)</f>
         <v>1500.5882352941176</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="62"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="58">
-        <f>AVERAGE(C23:E23)</f>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="64"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="60">
         <v>118.92156862745098</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="59">
-        <f>AVERAGE(F23:N23)</f>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="61">
         <v>612.68627450980387</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2195,33 +2181,33 @@
       <selection sqref="A1:O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2229,22 +2215,22 @@
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="69"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -2254,7 +2240,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2269,23 +2255,23 @@
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-    </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -2328,7 +2314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -2375,7 +2361,7 @@
         <v>29244</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2408,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="16" t="s">
         <v>8</v>
@@ -2467,7 +2453,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="16" t="s">
         <v>9</v>
@@ -2512,7 +2498,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
         <v>10</v>
@@ -2557,7 +2543,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
         <v>11</v>
@@ -2602,7 +2588,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
         <v>12</v>
@@ -2647,7 +2633,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
         <v>13</v>
@@ -2692,7 +2678,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
         <v>14</v>
@@ -2737,7 +2723,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
         <v>15</v>
@@ -2782,7 +2768,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
         <v>16</v>
@@ -2827,7 +2813,7 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
         <v>16</v>
@@ -2872,7 +2858,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
         <v>17</v>
@@ -2917,7 +2903,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
         <v>18</v>
@@ -2962,7 +2948,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
         <v>19</v>
@@ -3007,7 +2993,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
         <v>20</v>
@@ -3052,7 +3038,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
         <v>21</v>
@@ -3097,7 +3083,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
         <v>22</v>
@@ -3142,7 +3128,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
         <v>23</v>
@@ -3187,7 +3173,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
         <v>24</v>
@@ -3232,7 +3218,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="17" t="s">
         <v>25</v>
@@ -3277,17 +3263,17 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Tables/Supp Table 5 - SNP-to-GeneMappingSummary.xlsx
+++ b/Tables/Supp Table 5 - SNP-to-GeneMappingSummary.xlsx
@@ -154,7 +154,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Maize grain ionome SNP-to-gene mapping results</t>
+      <t xml:space="preserve">Maize grain ionome SNP-to-gene mapping results. </t>
     </r>
     <r>
       <rPr>
@@ -164,8 +164,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Significant GWAS SNPs associated with the maize grain ionome were mapped to candidate genes. SNPs within overlapping windows were collapsed down to Effective Loci. Candidate genes were mapped by taking genes upstream and downstream (designated by Window Size) of the effective locus, up to the maximum designated by Flank Limit. The Ionome average shows the average per column for each value (e.g. at 50kb there are an average of 138 effective loci) as well as total average for the whole group (e.g. average of 50kb, 100kb, and 500kb is 119 effective loci).
+      <t xml:space="preserve">Significant GWAS SNPs associated with the maize grain ionome were mapped to candidate genes. SNPs within overlapping windows were collapsed down to Effective Loci. Candidate genes were mapped by taking genes upstream and downstream (designated by Window Size) of the effective locus, up to the maximum designated by Flank Limit. The Ionome average shows the average per column for each value (e.g. at 50kb there are an average of 138 effective loci) as well as total average for the whole group (e.g. average of 50kb, 100kb, and 500kb is 119 effective loci). Supports Figure 6.
 </t>
     </r>
   </si>
@@ -1182,7 +1181,7 @@
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
